--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value193.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value193.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166154187484746</v>
+        <v>4.344528675079346</v>
       </c>
       <c r="B1">
-        <v>1.839459090822875</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2.904809621735532</v>
+        <v>3.873332262039185</v>
       </c>
       <c r="D1">
-        <v>2.247103322805489</v>
+        <v>3.134007930755615</v>
       </c>
       <c r="E1">
-        <v>0.6204803836736722</v>
+        <v>1.745621800422668</v>
       </c>
     </row>
   </sheetData>
